--- a/organization/static/siteWide/Metadata_entry_form_V3.xlsx
+++ b/organization/static/siteWide/Metadata_entry_form_V3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanda/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanda/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16060" tabRatio="905" firstSheet="10" activeTab="21"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="49420" windowHeight="21140" tabRatio="905"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="ExperimentSetReplicate" sheetId="23" r:id="rId21"/>
     <sheet name="ExperimentSet" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="529">
   <si>
     <t>#Field Name:</t>
   </si>
@@ -116,6 +116,54 @@
     <t>The publications that provide more information about the object.</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>dcic:insituhicagar</t>
+  </si>
+  <si>
+    <t>general protocol</t>
+  </si>
+  <si>
+    <t>InsituHiC_agar.pdf</t>
+  </si>
+  <si>
+    <t>dcic:insituhic3day</t>
+  </si>
+  <si>
+    <t>InsituHiC_3day.pdf</t>
+  </si>
+  <si>
+    <t>dcic:dilutionhic</t>
+  </si>
+  <si>
+    <t>DilutionHiC.pdf</t>
+  </si>
+  <si>
+    <t>dcic:insituhicwoutcl</t>
+  </si>
+  <si>
+    <t>InsituHiC_wo_crosslink.pdf</t>
+  </si>
+  <si>
+    <t>dcic:pelletsnhic</t>
+  </si>
+  <si>
+    <t>InsituHiC_sn_pellet.pdf</t>
+  </si>
+  <si>
+    <t>dcic:tetheredhic</t>
+  </si>
+  <si>
+    <t>InsituHiC_tethered.pdf</t>
+  </si>
+  <si>
+    <t>dcic:insituhic</t>
+  </si>
+  <si>
+    <t>InsituHiC.pdf</t>
+  </si>
+  <si>
     <t>A short description of the protocol</t>
   </si>
   <si>
@@ -125,6 +173,48 @@
     <t>array of Item:Documents</t>
   </si>
   <si>
+    <t>dcic:Pro_insituhicagar</t>
+  </si>
+  <si>
+    <t>/documents/22393542-df7c-43ab-874e-135e440495fe/</t>
+  </si>
+  <si>
+    <t>dcic:Pro_insituhic3day</t>
+  </si>
+  <si>
+    <t>/documents/61c5f07c-a647-497f-a452-a5321287c075/</t>
+  </si>
+  <si>
+    <t>dcic:Pro_dilutionhic</t>
+  </si>
+  <si>
+    <t>/documents/b3a5a4b1-5724-4eb6-982c-2b25c06a7ced/</t>
+  </si>
+  <si>
+    <t>dcic:Pro_insituhicwoutcl</t>
+  </si>
+  <si>
+    <t>/documents/d97b19b1-0b8e-4ab1-a44a-02c7925a9bb5/</t>
+  </si>
+  <si>
+    <t>dcic:Pro_pelletsnhic</t>
+  </si>
+  <si>
+    <t>/documents/3217d2ff-bf7d-4dad-b9a5-c2a01de6dd58/</t>
+  </si>
+  <si>
+    <t>dcic:Pro_tetheredhic</t>
+  </si>
+  <si>
+    <t>/documents/18fcd03f-d852-4657-a898-53ce8ba8b0c6/</t>
+  </si>
+  <si>
+    <t>dcic:Pro_insituhic</t>
+  </si>
+  <si>
+    <t>/documents/8f21d6c9-49ac-4af7-8d12-10067a5716a3/</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
@@ -167,6 +257,24 @@
     <t>Choices:['4DN', 'External']</t>
   </si>
   <si>
+    <t>dciclab:pub_rao</t>
+  </si>
+  <si>
+    <t>A 3D map of the human genome at kilobase resolution reveals principles of chromatin looping.</t>
+  </si>
+  <si>
+    <t>PMID:25497547</t>
+  </si>
+  <si>
+    <t>key publication</t>
+  </si>
+  <si>
+    <t>dciclab:rao_set1,dciclab:rao_set2,dciclab:rao_set3,dciclab:rao_set4,dciclab:rao_set5,dciclab:rao_set6,dciclab:rao_set7,dciclab:rao_set8,dciclab:rao_set9,dciclab:rao_set10,dciclab:rao_set11,dciclab:rao_set12,dciclab:rao_set13,dciclab:rao_set14,dciclab:rao_set15,dciclab:rao_set16,dciclab:rao_set17,dciclab:rao_set18,dciclab:rao_set19,dciclab:rao_set20,dciclab:rao_set21,dciclab:rao_set22,dciclab:rao_rep01,dciclab:rao_rep02,dciclab:rao_rep03,dciclab:rao_rep04,dciclab:rao_rep05,dciclab:rao_rep06,dciclab:rao_rep07,dciclab:rao_rep08,dciclab:rao_rep09,dciclab:rao_rep10,dciclab:rao_rep11,dciclab:rao_rep12,dciclab:rao_rep13,dciclab:rao_rep14,dciclab:rao_rep15,dciclab:rao_rep16,dciclab:rao_rep17,dciclab:rao_rep18,dciclab:rao_rep19,dciclab:rao_rep20,dciclab:rao_rep21,dciclab:rao_rep22,dciclab:rao_rep23,dciclab:rao_rep24,dciclab:rao_rep25,dciclab:rao_rep26,dciclab:rao_rep27,dciclab:rao_rep28,dciclab:rao_rep29,dciclab:rao_rep30,dciclab:rao_rep31,dciclab:rao_rep32,dciclab:rao_rep33,dciclab:rao_rep34,dciclab:rao_rep35,dciclab:rao_rep36</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -257,6 +365,105 @@
     <t>An external resource with additional information about the source.</t>
   </si>
   <si>
+    <t>dcic:tfs</t>
+  </si>
+  <si>
+    <t>thermofisher-scientific</t>
+  </si>
+  <si>
+    <t>ThermoFisher Scientific</t>
+  </si>
+  <si>
+    <t>previously also Fermentas</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/us/en/home/brands/thermo-scientific.html#/legacy=www.fermentas.com</t>
+  </si>
+  <si>
+    <t>dcic:neb</t>
+  </si>
+  <si>
+    <t>new-england-biolabs</t>
+  </si>
+  <si>
+    <t>New England Biolabs</t>
+  </si>
+  <si>
+    <t>https://www.neb.com</t>
+  </si>
+  <si>
+    <t>dcic:wortbio</t>
+  </si>
+  <si>
+    <t>worthington-biochemical</t>
+  </si>
+  <si>
+    <t>Worthington Biochemical</t>
+  </si>
+  <si>
+    <t>http://www.worthington-biochem.com</t>
+  </si>
+  <si>
+    <t>dcic:weismann</t>
+  </si>
+  <si>
+    <t>weissman-lab</t>
+  </si>
+  <si>
+    <t>Weissman Lab</t>
+  </si>
+  <si>
+    <t>http://weissmanlab.ucsf.edu/</t>
+  </si>
+  <si>
+    <t>dcic:haplogen</t>
+  </si>
+  <si>
+    <t>haplogen-gmbh</t>
+  </si>
+  <si>
+    <t>Haplogen GmbH</t>
+  </si>
+  <si>
+    <t>http://www.haplogen.com/</t>
+  </si>
+  <si>
+    <t>dcic:lonza</t>
+  </si>
+  <si>
+    <t>lonza-walkersville-inc</t>
+  </si>
+  <si>
+    <t>Lonza Walkersville Inc</t>
+  </si>
+  <si>
+    <t>http://www.lonza.com/</t>
+  </si>
+  <si>
+    <t>dcic:atcc</t>
+  </si>
+  <si>
+    <t>american-type-culture-collection</t>
+  </si>
+  <si>
+    <t>American Type Culture Collection</t>
+  </si>
+  <si>
+    <t>https://www.atcc.org/</t>
+  </si>
+  <si>
+    <t>dcic:coriell</t>
+  </si>
+  <si>
+    <t>coriell-institute-for-medical-research</t>
+  </si>
+  <si>
+    <t>Coriell Institute for Medical Research</t>
+  </si>
+  <si>
+    <t>https://catalog.coriell.org/</t>
+  </si>
+  <si>
     <t>*name</t>
   </si>
   <si>
@@ -305,6 +512,138 @@
     <t>An external resource with additional information about the construct.</t>
   </si>
   <si>
+    <t>dcic:3nzNMB_neb</t>
+  </si>
+  <si>
+    <t>NcoI_MspI_BspHI</t>
+  </si>
+  <si>
+    <t>Mixed Enzymes</t>
+  </si>
+  <si>
+    <t>/vendors/new-england-biolabs/</t>
+  </si>
+  <si>
+    <t>dcic:mnase_wb</t>
+  </si>
+  <si>
+    <t>MNase</t>
+  </si>
+  <si>
+    <t>used for Micro-C</t>
+  </si>
+  <si>
+    <t>/vendors/worthington-biochemical/</t>
+  </si>
+  <si>
+    <t>LS004798</t>
+  </si>
+  <si>
+    <t>http://www.worthington-biochem.com/nfcp/default.html</t>
+  </si>
+  <si>
+    <t>dcic:dnaseI_tfs</t>
+  </si>
+  <si>
+    <t>DNaseI</t>
+  </si>
+  <si>
+    <t>used for DNase HiC</t>
+  </si>
+  <si>
+    <t>/vendors/thermofisher-scientific/</t>
+  </si>
+  <si>
+    <t>EN052</t>
+  </si>
+  <si>
+    <t>https://www.thermofisher.com/order/catalog/product/EN0525</t>
+  </si>
+  <si>
+    <t>dcic:mspI_neb</t>
+  </si>
+  <si>
+    <t>MspI</t>
+  </si>
+  <si>
+    <t>R0106</t>
+  </si>
+  <si>
+    <t>CCGG</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>https://www.neb.com/products/r0106-mspi</t>
+  </si>
+  <si>
+    <t>dcic:dpnII_neb</t>
+  </si>
+  <si>
+    <t>DpnII</t>
+  </si>
+  <si>
+    <t>R0543</t>
+  </si>
+  <si>
+    <t>GATC</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>https://www.neb.com/products/r0543-dpnii</t>
+  </si>
+  <si>
+    <t>dcic:mboI_neb</t>
+  </si>
+  <si>
+    <t>MboI</t>
+  </si>
+  <si>
+    <t>R0147</t>
+  </si>
+  <si>
+    <t>https://www.neb.com/products/r0147-mboi</t>
+  </si>
+  <si>
+    <t>dcic:ncoI_neb</t>
+  </si>
+  <si>
+    <t>NcoI</t>
+  </si>
+  <si>
+    <t>R0193</t>
+  </si>
+  <si>
+    <t>CCATGG</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://www.neb.com/products/r0193-ncoi</t>
+  </si>
+  <si>
+    <t>dcic:hindIII_neb</t>
+  </si>
+  <si>
+    <t>HindIII</t>
+  </si>
+  <si>
+    <t>R0104</t>
+  </si>
+  <si>
+    <t>AAGCTT</t>
+  </si>
+  <si>
+    <t>https://www.neb.com/products/r0104-hindiii</t>
+  </si>
+  <si>
     <t>A plain text description of the biosource.</t>
   </si>
   <si>
@@ -384,6 +723,180 @@
   </si>
   <si>
     <t>An external resource with additional information about the biosource.</t>
+  </si>
+  <si>
+    <t>dcic:HeLaS3</t>
+  </si>
+  <si>
+    <t>HeLa-S3 (CCL-2.2)</t>
+  </si>
+  <si>
+    <t>immortalized cell line</t>
+  </si>
+  <si>
+    <t>HeLa-S3</t>
+  </si>
+  <si>
+    <t>/vendors/american-type-culture-collection/</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINCN9JJ6L/</t>
+  </si>
+  <si>
+    <t>cervix</t>
+  </si>
+  <si>
+    <t>https://www.atcc.org/Products/All/CCL-2.2.aspx</t>
+  </si>
+  <si>
+    <t>dcic:CC2517</t>
+  </si>
+  <si>
+    <t>CC-2517 Human Umbilical Vein Endothelial Cells</t>
+  </si>
+  <si>
+    <t>primary cell</t>
+  </si>
+  <si>
+    <t>CC-2517</t>
+  </si>
+  <si>
+    <t>/vendors/lonza-walkersville-inc/</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINSHVYESI/</t>
+  </si>
+  <si>
+    <t>http://www.lonza.com/products-services/bio-research/primary-cells/human-cells-and-media/endothelial-cells-and-media/huvec-human-umbilical-vein-endothelial-cells.aspx</t>
+  </si>
+  <si>
+    <t>dcic:192627</t>
+  </si>
+  <si>
+    <t>192627 Adult Normal Human Epidermal Keratinocytes</t>
+  </si>
+  <si>
+    <t>192627</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINC1P3BRY/</t>
+  </si>
+  <si>
+    <t>http://www.lonza.com/products-services/bio-research/primary-cells/human-cells-and-media/keratinocytes-and-media/adult-and-neonatal-keratinocytes.aspx</t>
+  </si>
+  <si>
+    <t>dcic:KBM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KBM-7 </t>
+  </si>
+  <si>
+    <t>KBM-7</t>
+  </si>
+  <si>
+    <t>/vendors/haplogen-gmbh/</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINUX54RTL/</t>
+  </si>
+  <si>
+    <t>https://www.horizondiscovery.com/kbm-7-cell-lines-c628</t>
+  </si>
+  <si>
+    <t>dcic:CH12LX</t>
+  </si>
+  <si>
+    <t>CH12-LX</t>
+  </si>
+  <si>
+    <t>/vendors/weissman-lab/</t>
+  </si>
+  <si>
+    <t>/individuals-mouse/4DNINTZQCPWC/</t>
+  </si>
+  <si>
+    <t>https://genome.ucsc.edu/ENCODE/protocols/cell/mouse/CH12_Weissman_protocol.pdf</t>
+  </si>
+  <si>
+    <t>dcic:CC2551</t>
+  </si>
+  <si>
+    <t>CC-2551</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINMUPBARR/</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>http://www.lonza.com/products-services/bio-research/primary-cells/human-cells-and-media/mammary-epithelial-cells-and-media/hmec-human-mammary-epithelial-cells.aspx</t>
+  </si>
+  <si>
+    <t>dcic:IMR90</t>
+  </si>
+  <si>
+    <t>IMR-90 (CCL-186)</t>
+  </si>
+  <si>
+    <t>IMR-90</t>
+  </si>
+  <si>
+    <t>EFO_0001196</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINTJ7Y7Z1/</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>https://www.atcc.org/Products/All/CCL-186.aspx</t>
+  </si>
+  <si>
+    <t>dcic:K562</t>
+  </si>
+  <si>
+    <t>K562 (CCL-243)</t>
+  </si>
+  <si>
+    <t>K562</t>
+  </si>
+  <si>
+    <t>EFO_0002067</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNIN5UB4Y2M/</t>
+  </si>
+  <si>
+    <t>bone marrow</t>
+  </si>
+  <si>
+    <t>https://www.atcc.org/products/all/CCL-243.aspx</t>
+  </si>
+  <si>
+    <t>dcic:gm12878</t>
+  </si>
+  <si>
+    <t>Homo sapiens GM12878 immortalized cell line</t>
+  </si>
+  <si>
+    <t>GM12878</t>
+  </si>
+  <si>
+    <t>/vendors/coriell-institute-for-medical-research/</t>
+  </si>
+  <si>
+    <t>EFO_0002784</t>
+  </si>
+  <si>
+    <t>/individuals-human/4DNINW3DYIL4/</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>https://catalog.coriell.org/0/Sections/Search/Sample_Detail.aspx?Ref=GM12878&amp;Product=CC</t>
   </si>
   <si>
     <t>Short name for construct - letters, numbers, hyphens or underscores allowed (no spaces)</t>
@@ -1570,9 +2083,7 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="A5:G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1667,65 +2178,121 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -2662,28 +3229,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -2700,19 +3267,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -2729,29 +3296,29 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -2765,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -2780,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -4122,25 +4689,25 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>316</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>150</v>
+        <v>321</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -4160,22 +4727,22 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -4189,7 +4756,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4198,7 +4765,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
@@ -4221,19 +4788,19 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -5569,25 +6136,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>325</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>165</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -5604,10 +6171,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -5627,25 +6194,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>323</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>160</v>
+        <v>331</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>162</v>
+        <v>333</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5656,10 +6223,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -6810,16 +7377,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -6836,7 +7403,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -6853,19 +7420,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -6888,7 +7455,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -7821,31 +8388,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7862,19 +8429,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>186</v>
+        <v>357</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -7891,31 +8458,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>187</v>
+        <v>358</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -7929,7 +8496,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -9283,10 +9850,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -9960,49 +10527,49 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>362</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>205</v>
+        <v>376</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>213</v>
+        <v>384</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>215</v>
+        <v>386</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>219</v>
+        <v>390</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -10019,7 +10586,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -10037,22 +10604,22 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>9</v>
@@ -10069,48 +10636,48 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>366</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>201</v>
+        <v>372</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>206</v>
+        <v>377</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>209</v>
+        <v>380</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>216</v>
+        <v>387</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>218</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>220</v>
+        <v>391</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -10124,28 +10691,28 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
@@ -10166,7 +10733,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -12202,31 +12769,31 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>401</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>412</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -12240,25 +12807,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>235</v>
+        <v>406</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>238</v>
+        <v>409</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>242</v>
+        <v>413</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -12275,32 +12842,32 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -12314,13 +12881,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>396</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -12329,16 +12896,16 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -13771,52 +14338,52 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>258</v>
+        <v>429</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>261</v>
+        <v>432</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>267</v>
+        <v>438</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -13833,28 +14400,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>256</v>
+        <v>427</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>9</v>
@@ -13863,13 +14430,13 @@
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
@@ -13884,43 +14451,43 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>253</v>
+        <v>424</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>257</v>
+        <v>428</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>266</v>
+        <v>437</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>270</v>
+        <v>441</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -13931,10 +14498,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>416</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -13943,13 +14510,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>254</v>
+        <v>425</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>260</v>
+        <v>431</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -13964,19 +14531,19 @@
         <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>254</v>
+        <v>425</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -16009,22 +16576,22 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -16041,13 +16608,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -16062,19 +16629,19 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -16085,22 +16652,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>448</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>278</v>
+        <v>449</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -17121,9 +17688,7 @@
   </sheetPr>
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A5:H13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -17138,7 +17703,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -17152,7 +17717,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -17163,7 +17728,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -17182,46 +17747,88 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
@@ -17856,106 +18463,106 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>454</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>456</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>293</v>
+        <v>464</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>301</v>
+        <v>472</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>303</v>
+        <v>474</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>306</v>
+        <v>477</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>308</v>
+        <v>479</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>314</v>
+        <v>485</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>321</v>
+        <v>492</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>323</v>
+        <v>494</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>325</v>
+        <v>496</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>328</v>
+        <v>499</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>331</v>
+        <v>502</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>333</v>
+        <v>504</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>335</v>
+        <v>506</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>337</v>
+        <v>508</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>339</v>
+        <v>510</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>341</v>
+        <v>512</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>343</v>
+        <v>514</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>345</v>
+        <v>516</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>348</v>
+        <v>519</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>351</v>
+        <v>522</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -17969,25 +18576,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>288</v>
+        <v>459</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>291</v>
+        <v>462</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -17999,19 +18606,19 @@
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>311</v>
+        <v>482</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>9</v>
@@ -18020,7 +18627,7 @@
         <v>9</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>9</v>
@@ -18035,34 +18642,34 @@
         <v>9</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>346</v>
+        <v>517</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>352</v>
+        <v>523</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>20</v>
@@ -18079,109 +18686,109 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>289</v>
+        <v>460</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>307</v>
+        <v>478</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>309</v>
+        <v>480</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>317</v>
+        <v>488</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>319</v>
+        <v>490</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>320</v>
+        <v>491</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>322</v>
+        <v>493</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>326</v>
+        <v>497</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>329</v>
+        <v>500</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>332</v>
+        <v>503</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>336</v>
+        <v>507</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>338</v>
+        <v>509</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>340</v>
+        <v>511</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>342</v>
+        <v>513</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>344</v>
+        <v>515</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>347</v>
+        <v>518</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>349</v>
+        <v>520</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>353</v>
+        <v>524</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
@@ -18210,19 +18817,19 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>295</v>
+        <v>466</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>300</v>
+        <v>471</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -18231,7 +18838,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>313</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
@@ -18243,7 +18850,7 @@
         <v>11</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>11</v>
@@ -18252,10 +18859,10 @@
         <v>11</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>330</v>
+        <v>501</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
@@ -18282,19 +18889,19 @@
         <v>11</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>350</v>
+        <v>521</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
@@ -22216,7 +22823,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="X88" sqref="X88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22229,10 +22836,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -22246,7 +22853,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -22257,10 +22864,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>525</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -22274,7 +22881,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -22895,7 +23502,7 @@
   </sheetPr>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -22907,13 +23514,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -22930,7 +23537,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -22941,13 +23548,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>525</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>527</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -22961,10 +23568,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>357</v>
+        <v>528</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -23685,9 +24292,7 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="A5:J10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -23699,25 +24304,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -23757,18 +24362,18 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -23783,34 +24388,48 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
@@ -24942,31 +25561,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -24977,7 +25596,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -24989,13 +25608,13 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -25012,23 +25631,23 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -25042,10 +25661,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -25054,10 +25673,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -26396,31 +27015,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -26431,7 +27050,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -26449,7 +27068,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -26466,7 +27085,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -26474,13 +27093,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -26494,7 +27113,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -26503,13 +27122,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -27836,9 +28455,7 @@
   </sheetPr>
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -27850,16 +28467,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -27890,16 +28507,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -27923,68 +28540,150 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -28804,9 +29503,7 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -28818,34 +29515,34 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -28862,7 +29559,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -28871,16 +29568,16 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>9</v>
@@ -28894,32 +29591,32 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -28930,7 +29627,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -28954,18 +29651,28 @@
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -28975,102 +29682,220 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
@@ -30490,9 +31315,7 @@
   </sheetPr>
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -30507,37 +31330,37 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -30560,19 +31383,19 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>9</v>
@@ -30592,40 +31415,40 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -30639,13 +31462,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -30657,7 +31480,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -30673,148 +31496,308 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -32446,40 +33429,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -32499,7 +33482,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -32508,7 +33491,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -32517,7 +33500,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>20</v>
@@ -32534,40 +33517,40 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -32584,7 +33567,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -32605,7 +33588,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>

--- a/organization/static/siteWide/Metadata_entry_form_V3.xlsx
+++ b/organization/static/siteWide/Metadata_entry_form_V3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanda/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanda/Documents/EclipseWorkspace/clims/cLIMS/organization/static/siteWide/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3140" windowWidth="49420" windowHeight="21140" tabRatio="905"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="16100" tabRatio="905" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
@@ -1671,9 +1671,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,7 +2084,7 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4674,7 +4675,9 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14326,7 +14329,9 @@
   </sheetPr>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -14346,22 +14351,22 @@
       <c r="E1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>429</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>433</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -14457,13 +14462,13 @@
         <v>421</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>430</v>
       </c>
       <c r="J3" s="1"/>
@@ -14515,7 +14520,7 @@
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>431</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -17688,7 +17693,7 @@
   </sheetPr>
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -18448,7 +18453,9 @@
   </sheetPr>
   <dimension ref="A1:AK104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -18579,10 +18586,10 @@
         <v>452</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>459</v>
@@ -23502,7 +23509,9 @@
   </sheetPr>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24292,7 +24301,9 @@
   </sheetPr>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/organization/static/siteWide/Metadata_entry_form_V3.xlsx
+++ b/organization/static/siteWide/Metadata_entry_form_V3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="16100" tabRatio="905" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="16100" tabRatio="905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="522">
   <si>
     <t>#Field Name:</t>
   </si>
@@ -176,43 +176,22 @@
     <t>dcic:Pro_insituhicagar</t>
   </si>
   <si>
-    <t>/documents/22393542-df7c-43ab-874e-135e440495fe/</t>
-  </si>
-  <si>
     <t>dcic:Pro_insituhic3day</t>
   </si>
   <si>
-    <t>/documents/61c5f07c-a647-497f-a452-a5321287c075/</t>
-  </si>
-  <si>
     <t>dcic:Pro_dilutionhic</t>
   </si>
   <si>
-    <t>/documents/b3a5a4b1-5724-4eb6-982c-2b25c06a7ced/</t>
-  </si>
-  <si>
     <t>dcic:Pro_insituhicwoutcl</t>
   </si>
   <si>
-    <t>/documents/d97b19b1-0b8e-4ab1-a44a-02c7925a9bb5/</t>
-  </si>
-  <si>
     <t>dcic:Pro_pelletsnhic</t>
   </si>
   <si>
-    <t>/documents/3217d2ff-bf7d-4dad-b9a5-c2a01de6dd58/</t>
-  </si>
-  <si>
     <t>dcic:Pro_tetheredhic</t>
   </si>
   <si>
-    <t>/documents/18fcd03f-d852-4657-a898-53ce8ba8b0c6/</t>
-  </si>
-  <si>
     <t>dcic:Pro_insituhic</t>
-  </si>
-  <si>
-    <t>/documents/8f21d6c9-49ac-4af7-8d12-10067a5716a3/</t>
   </si>
   <si>
     <t>title</t>
@@ -1671,10 +1650,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3230,28 +3210,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3268,13 +3248,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -3297,29 +3277,29 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -3333,7 +3313,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -3348,7 +3328,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -4692,25 +4672,25 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -4730,19 +4710,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>40</v>
@@ -4759,7 +4739,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4768,7 +4748,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
@@ -4791,19 +4771,19 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -6139,25 +6119,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6174,10 +6154,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -6197,25 +6177,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6226,10 +6206,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -7380,16 +7360,16 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -7406,7 +7386,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
@@ -7423,19 +7403,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -7458,7 +7438,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -8391,31 +8371,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -8432,19 +8412,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -8461,31 +8441,31 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -8499,7 +8479,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -9853,10 +9833,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -10530,49 +10510,49 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -10589,7 +10569,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -10607,22 +10587,22 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>9</v>
@@ -10642,45 +10622,45 @@
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -10694,28 +10674,28 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
@@ -10736,7 +10716,7 @@
         <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -12772,31 +12752,31 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -12810,25 +12790,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -12845,32 +12825,32 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -12884,13 +12864,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -12899,16 +12879,16 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -14343,52 +14323,52 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -14408,25 +14388,25 @@
         <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>9</v>
@@ -14435,13 +14415,13 @@
         <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
@@ -14456,43 +14436,43 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -14503,10 +14483,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -14515,13 +14495,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -14536,19 +14516,19 @@
         <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -16581,22 +16561,22 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -16616,10 +16596,10 @@
         <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -16634,19 +16614,19 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -16657,22 +16637,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -17693,7 +17673,9 @@
   </sheetPr>
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -17707,8 +17689,8 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -17721,8 +17703,8 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -17735,7 +17717,7 @@
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -17747,7 +17729,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -17759,8 +17741,8 @@
         <v>41</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -17768,11 +17750,11 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -17780,11 +17762,11 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -17792,11 +17774,11 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -17804,11 +17786,11 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -17816,11 +17798,11 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -17828,11 +17810,11 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -18453,7 +18435,7 @@
   </sheetPr>
   <dimension ref="A1:AK104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -18470,106 +18452,106 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.15">
@@ -18583,25 +18565,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
@@ -18613,19 +18595,19 @@
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>9</v>
@@ -18634,7 +18616,7 @@
         <v>9</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>9</v>
@@ -18649,31 +18631,31 @@
         <v>9</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>40</v>
@@ -18693,109 +18675,109 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="AH3" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.15">
@@ -18824,19 +18806,19 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -18845,7 +18827,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
@@ -18857,7 +18839,7 @@
         <v>11</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>11</v>
@@ -18866,10 +18848,10 @@
         <v>11</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
@@ -18896,19 +18878,19 @@
         <v>11</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="AJ4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.15">
@@ -22843,10 +22825,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -22871,10 +22853,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -22888,7 +22870,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -23523,13 +23505,13 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -23557,13 +23539,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -23577,10 +23559,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -24315,25 +24297,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -24373,18 +24355,18 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -24399,22 +24381,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -24422,24 +24404,24 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -25572,31 +25554,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -25607,7 +25589,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -25619,7 +25601,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -25642,23 +25624,23 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -25672,10 +25654,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -25684,10 +25666,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -27026,31 +27008,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -27061,7 +27043,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -27096,7 +27078,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -27104,13 +27086,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -27124,7 +27106,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -27133,13 +27115,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -28478,16 +28460,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -28518,16 +28500,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -28555,19 +28537,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -28575,17 +28557,17 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -28593,17 +28575,17 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -28611,17 +28593,17 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -28629,17 +28611,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -28647,17 +28629,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -28665,17 +28647,17 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -28683,17 +28665,17 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -29526,34 +29508,34 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -29570,7 +29552,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -29579,10 +29561,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -29602,32 +29584,32 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -29638,7 +29620,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -29662,7 +29644,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>11</v>
@@ -29673,16 +29655,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -29697,19 +29679,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -29717,7 +29699,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -29725,19 +29707,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -29745,7 +29727,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -29753,31 +29735,31 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -29785,31 +29767,31 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -29817,31 +29799,31 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -29849,31 +29831,31 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -29881,31 +29863,31 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -31341,37 +31323,37 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -31394,19 +31376,19 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>9</v>
@@ -31426,40 +31408,40 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -31473,13 +31455,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -31491,7 +31473,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -31511,33 +31493,33 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -31545,31 +31527,31 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -31577,31 +31559,31 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -31609,31 +31591,31 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -31641,31 +31623,31 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -31673,33 +31655,33 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -31707,35 +31689,35 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -31743,35 +31725,35 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -31779,35 +31761,35 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -33440,40 +33422,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -33493,7 +33475,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -33502,7 +33484,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -33528,40 +33510,40 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -33578,7 +33560,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -33599,7 +33581,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>

--- a/organization/static/siteWide/Metadata_entry_form_V3.xlsx
+++ b/organization/static/siteWide/Metadata_entry_form_V3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanda/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanda/Documents/EclipseWorkspace/clims/cLIMS/organization/static/siteWide/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="16340" windowHeight="10840" firstSheet="3" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="16340" windowHeight="10840" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
@@ -1937,9 +1937,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19006,7 +19007,9 @@
   </sheetPr>
   <dimension ref="A1:AK104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -19136,11 +19139,11 @@
       <c r="D2" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
+      <c r="E2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>86</v>
@@ -23380,7 +23383,7 @@
   </sheetPr>
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/organization/static/siteWide/Metadata_entry_form_V3.xlsx
+++ b/organization/static/siteWide/Metadata_entry_form_V3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="-2440" windowWidth="30060" windowHeight="16340" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="29040" yWindow="-2440" windowWidth="30060" windowHeight="16340" firstSheet="11" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
@@ -11524,7 +11524,7 @@
   </sheetPr>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -20162,7 +20162,7 @@
   <dimension ref="A1:AK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20294,10 +20294,10 @@
         <v>739</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>129</v>
@@ -24537,7 +24537,9 @@
   </sheetPr>
   <dimension ref="A1:AN104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -24677,10 +24679,10 @@
         <v>739</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>129</v>
@@ -29247,8 +29249,8 @@
   </sheetPr>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -29353,10 +29355,10 @@
         <v>739</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>129</v>

--- a/organization/static/siteWide/Metadata_entry_form_V3.xlsx
+++ b/organization/static/siteWide/Metadata_entry_form_V3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="-2440" windowWidth="30060" windowHeight="16340" firstSheet="11" activeTab="21"/>
+    <workbookView xWindow="29040" yWindow="-2440" windowWidth="30060" windowHeight="16340" firstSheet="4" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="ExperimentSet" sheetId="23" r:id="rId23"/>
     <sheet name="ExperimentSetReplicate" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="837">
   <si>
     <t>#Field Name:</t>
   </si>
@@ -2053,18 +2053,9 @@
     <t>Chromosome count and any noted rearrangements or copy number variation</t>
   </si>
   <si>
-    <t>karyotype_image</t>
-  </si>
-  <si>
     <t>Item:Image</t>
   </si>
   <si>
-    <t>Image of the karyotype of potentially genomically unstable lines</t>
-  </si>
-  <si>
-    <t>If passage number is more then 10, please supply a karyotype image, or karyotype information from sequencing data.</t>
-  </si>
-  <si>
     <t>morphology_image</t>
   </si>
   <si>
@@ -2555,6 +2546,21 @@
   </si>
   <si>
     <t>Key words that can tag an item - useful for filtering.</t>
+  </si>
+  <si>
+    <t>protocol_classification</t>
+  </si>
+  <si>
+    <t>A classification for a protocol or document that is more specific than it's type.  For example, an Authentication document can be classified as a 'Cell Cycle Authentication' or a Biosample preparation protocol can be classified as 'Tissue Preparation Methods'</t>
+  </si>
+  <si>
+    <t>Choices:['Experiment Authentication', 'Karyotyping Authentication', 'Differentiation Authentication', 'Cell cycle Authentication', 'Instrument Authentication', 'Tissue Preparation Methods']</t>
+  </si>
+  <si>
+    <t>authentication_protocols</t>
+  </si>
+  <si>
+    <t>One or more Protocol objects that are linked to authentication images or documents</t>
   </si>
 </sst>
 </file>
@@ -2593,9 +2599,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11524,13 +11531,12 @@
   </sheetPr>
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="13" max="13" width="20.6640625" customWidth="1"/>
     <col min="14" max="14" width="24.5" customWidth="1"/>
     <col min="15" max="15" width="43.83203125" customWidth="1"/>
   </cols>
@@ -11548,44 +11554,44 @@
       <c r="D1" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>176</v>
@@ -11605,16 +11611,16 @@
         <v>645</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
@@ -11629,16 +11635,16 @@
         <v>9</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>668</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>240</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>9</v>
@@ -11661,43 +11667,43 @@
         <v>646</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>177</v>
@@ -11723,25 +11729,25 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -13792,25 +13798,25 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -13830,25 +13836,25 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>314</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
@@ -13865,22 +13871,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>315</v>
@@ -13904,13 +13910,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -13919,10 +13925,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -15364,46 +15370,46 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>176</v>
@@ -15426,25 +15432,25 @@
         <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>9</v>
@@ -15456,10 +15462,10 @@
         <v>240</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>5</v>
@@ -15473,41 +15479,41 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>177</v>
@@ -15524,7 +15530,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -15533,13 +15539,13 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -15554,13 +15560,13 @@
         <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
@@ -17602,19 +17608,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>176</v>
@@ -17640,10 +17646,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -17657,20 +17663,20 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>177</v>
@@ -17687,16 +17693,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
@@ -18821,10 +18827,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18833,7 +18839,7 @@
     <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18849,8 +18855,11 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -18866,8 +18875,11 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -18881,8 +18893,11 @@
         <v>21</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -18898,8 +18913,11 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -18916,7 +18934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -18933,7 +18951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -18950,7 +18968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -18967,7 +18985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -18984,7 +19002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -19001,7 +19019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -19018,7 +19036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -19035,7 +19053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -19052,7 +19070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -19069,7 +19087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -19086,7 +19104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -20178,97 +20196,97 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>763</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>662</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>170</v>
@@ -20291,7 +20309,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>240</v>
@@ -20303,7 +20321,7 @@
         <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
@@ -20327,7 +20345,7 @@
         <v>158</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>158</v>
@@ -20369,19 +20387,19 @@
         <v>305</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>171</v>
@@ -20401,100 +20419,100 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="K3" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>772</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>789</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AE3" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="AG3" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>172</v>
@@ -20532,19 +20550,19 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>664</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -20553,7 +20571,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
@@ -20574,10 +20592,10 @@
         <v>11</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
@@ -20604,7 +20622,7 @@
         <v>11</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>11</v>
@@ -24554,106 +24572,106 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>763</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>662</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>170</v>
@@ -24676,7 +24694,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>240</v>
@@ -24688,7 +24706,7 @@
         <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
@@ -24712,7 +24730,7 @@
         <v>158</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>158</v>
@@ -24754,7 +24772,7 @@
         <v>305</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>9</v>
@@ -24763,19 +24781,19 @@
         <v>9</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>171</v>
@@ -24795,109 +24813,109 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="K3" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>772</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>789</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="AF3" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="AJ3" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>172</v>
@@ -24935,19 +24953,19 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>664</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>11</v>
@@ -24956,7 +24974,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
@@ -24977,10 +24995,10 @@
         <v>11</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
@@ -25016,7 +25034,7 @@
         <v>11</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>11</v>
@@ -29249,7 +29267,7 @@
   </sheetPr>
   <dimension ref="A1:AB104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -29266,70 +29284,70 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>662</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>170</v>
@@ -29352,7 +29370,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>240</v>
@@ -29364,13 +29382,13 @@
         <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>158</v>
@@ -29403,19 +29421,19 @@
         <v>305</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>171</v>
@@ -29435,73 +29453,73 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>832</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>172</v>
@@ -29539,7 +29557,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>11</v>
@@ -29548,7 +29566,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
@@ -29569,7 +29587,7 @@
         <v>11</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>11</v>
@@ -29584,7 +29602,7 @@
         <v>11</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>11</v>
@@ -32663,10 +32681,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>172</v>
@@ -33453,10 +33471,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>172</v>
